--- a/downloaded_files/MDPS301_Tutorial-35827.xlsx
+++ b/downloaded_files/MDPS301_Tutorial-35827.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,12 @@
   </x:si>
   <x:si>
     <x:t>Abdel-Rahman Ahmed Ahmed Abdullah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله خالد رجب عبدالمنعم عيد</x:t>
   </x:si>
   <x:si>
     <x:t>1220208</x:t>
@@ -209,7 +215,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -509,7 +515,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T8"/>
+  <x:dimension ref="A1:T9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -519,7 +525,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="27.890625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="35.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -724,11 +730,9 @@
       <x:c r="C6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
+      <x:c r="D6" s="2" t="s"/>
       <x:c r="E6" s="3">
-        <x:v>45907.6656329051</x:v>
+        <x:v>45928.8653064815</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -751,16 +755,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4176706019</x:v>
+        <x:v>45907.6656329051</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -783,16 +787,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4149225694</x:v>
+        <x:v>45907.4176706019</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -809,6 +813,38 @@
       <x:c r="R8" s="2" t="s"/>
       <x:c r="S8" s="2" t="s"/>
       <x:c r="T8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45907.4149225694</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS301_Tutorial-35827.xlsx
+++ b/downloaded_files/MDPS301_Tutorial-35827.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -73,6 +73,15 @@
   </x:si>
   <x:si>
     <x:t>عبدالله خالد رجب عبدالمنعم عيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1190572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عطا على السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Atta Ali Elsayed</x:t>
   </x:si>
   <x:si>
     <x:t>1220208</x:t>
@@ -215,7 +224,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -515,7 +524,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T9"/>
+  <x:dimension ref="A1:T10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -764,7 +773,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6656329051</x:v>
+        <x:v>45936.5615258102</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -796,7 +805,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4176706019</x:v>
+        <x:v>45907.6656329051</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -828,7 +837,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4149225694</x:v>
+        <x:v>45907.4176706019</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -845,6 +854,38 @@
       <x:c r="R9" s="2" t="s"/>
       <x:c r="S9" s="2" t="s"/>
       <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45907.4149225694</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS301_Tutorial-35827.xlsx
+++ b/downloaded_files/MDPS301_Tutorial-35827.xlsx
@@ -892,11 +892,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Stress Analysis and Vessel Design (MDPS301) Location : [33310]33310-60-ملحق كيمياء Time : Wednesday(16:18)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Stress Analysis and Vessel Design (MDPS301) Location : [33310]33310-60-ملحق كيمياء Time : Wednesday(15:18)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Stress Analysis and Vessel Design (MDPS301) Location : [33310]33310-60-ملحق كيمياء Time : Wednesday(16:18)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Stress Analysis and Vessel Design (MDPS301) Location : [33310]33310-60-ملحق كيمياء Time : Wednesday(15:18)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Stress Analysis and Vessel Design (MDPS301) Location : [33310]33310-60-ملحق كيمياء Time : Wednesday(16:18)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Stress Analysis and Vessel Design (MDPS301) Location : [33310]33310-60-ملحق كيمياء Time : Wednesday(15:18)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
